--- a/temp/topics_revised.xlsx
+++ b/temp/topics_revised.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luocheng\PycharmProjects\timesearch\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pycharmproj\timesearch\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="99">
   <si>
     <t>查询序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>有人给你的爷爷送了一些五味子，但你们不知道五味子是什么，请查找一下五味子的食用方法以及五味子的功效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>请你说说五味子一般有哪些食用方法，有什么功效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -335,8 +339,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有人给你的家人送了一些五味子，但你们不知道五味子是什么，请查找一下五味子的食用方法以及五味子的功效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>1.wma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.wma</t>
+  </si>
+  <si>
+    <t>3.wma</t>
+  </si>
+  <si>
+    <t>4.wma</t>
+  </si>
+  <si>
+    <t>5.wma</t>
+  </si>
+  <si>
+    <t>6.wma</t>
+  </si>
+  <si>
+    <t>7.wma</t>
+  </si>
+  <si>
+    <t>8.wma</t>
+  </si>
+  <si>
+    <t>9.wma</t>
+  </si>
+  <si>
+    <t>10.wma</t>
+  </si>
+  <si>
+    <t>11.wma</t>
+  </si>
+  <si>
+    <t>12.wma</t>
+  </si>
+  <si>
+    <t>13.wma</t>
+  </si>
+  <si>
+    <t>14.wma</t>
+  </si>
+  <si>
+    <t>15.wma</t>
+  </si>
+  <si>
+    <t>16.wma</t>
+  </si>
+  <si>
+    <t>17.wma</t>
+  </si>
+  <si>
+    <t>18.wma</t>
+  </si>
+  <si>
+    <t>19.wma</t>
+  </si>
+  <si>
+    <t>20.wma</t>
   </si>
 </sst>
 </file>
@@ -696,22 +757,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="26.875" customWidth="1"/>
-    <col min="4" max="4" width="98.5" customWidth="1"/>
-    <col min="5" max="5" width="55" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="5" max="6" width="55" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -727,11 +788,12 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -745,10 +807,13 @@
         <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -762,10 +827,13 @@
         <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -779,10 +847,13 @@
         <v>45</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -796,10 +867,13 @@
         <v>47</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -813,10 +887,13 @@
         <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>6</v>
       </c>
@@ -824,16 +901,19 @@
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <v>7</v>
       </c>
@@ -841,16 +921,19 @@
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -858,16 +941,19 @@
         <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
         <v>9</v>
       </c>
@@ -875,16 +961,19 @@
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -892,16 +981,19 @@
         <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
         <v>11</v>
       </c>
@@ -909,19 +1001,22 @@
         <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="1">
         <v>12</v>
       </c>
@@ -929,19 +1024,22 @@
         <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
         <v>13</v>
       </c>
@@ -949,19 +1047,22 @@
         <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B15" s="1">
         <v>14</v>
       </c>
@@ -969,19 +1070,22 @@
         <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
         <v>15</v>
       </c>
@@ -989,16 +1093,19 @@
         <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1009,16 +1116,19 @@
         <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1026,19 +1136,22 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
         <v>18</v>
       </c>
@@ -1046,16 +1159,19 @@
         <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1063,19 +1179,22 @@
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1083,19 +1202,22 @@
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B22" s="1"/>
     </row>
   </sheetData>
